--- a/fkbc_settings.xlsx
+++ b/fkbc_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahpearl/Documents/MATLAB/Crickmore/fkbc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3891B84D-0653-9D46-9657-E6937168753F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB12B852-E994-B344-BEC4-EB7BFA0C0C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14380" yWindow="2140" windowWidth="20680" windowHeight="17440" xr2:uid="{71187964-2ECA-0B45-9885-699DC30EBF95}"/>
+    <workbookView xWindow="14900" yWindow="1360" windowWidth="20680" windowHeight="17440" xr2:uid="{71187964-2ECA-0B45-9885-699DC30EBF95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>/Users/jonahpearl/Documents/MATLAB/Crickmore/fkcbOutput</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>night</t>
+  </si>
+  <si>
+    <t>FirstFrame2Load</t>
+  </si>
+  <si>
+    <t>TargetFPS</t>
+  </si>
+  <si>
+    <t>BkgdCalcEndtime</t>
+  </si>
+  <si>
+    <t>Frames4Bkgd</t>
   </si>
 </sst>
 </file>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15B0DC6-AAA8-8B4D-A3F6-DBC6293DEAC5}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +484,7 @@
     <col min="12" max="12" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -521,8 +533,20 @@
       <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,6 +594,18 @@
       </c>
       <c r="P2" t="s">
         <v>18</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1000</v>
+      </c>
+      <c r="T2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
